--- a/com.booking/src/test/resources/test_data.xlsx
+++ b/com.booking/src/test/resources/test_data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zainj\IdeaProjects\SeleniumBootcampWinterWeekend2022\com.espn\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zainj\IdeaProjects\SeleniumBootcampWinterWeekend2022\com.booking\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA89EF-1238-4A00-940D-3C2E7F60B1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138E1DB-5904-4F12-BC0E-2E45329C7E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{723F212A-670C-4A3B-B8E6-389E6F040CFB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Locations" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +32,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,8 +79,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,14 +396,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADF1CD2-1FEB-4105-B7FC-B561B248CD13}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/com.booking/src/test/resources/test_data.xlsx
+++ b/com.booking/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zainj\IdeaProjects\SeleniumBootcampWinterWeekend2022\com.booking\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138E1DB-5904-4F12-BC0E-2E45329C7E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA8066C-8C2E-40ED-8530-B294E279C041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{723F212A-670C-4A3B-B8E6-389E6F040CFB}"/>
+    <workbookView xWindow="5900" yWindow="5630" windowWidth="19200" windowHeight="10060" xr2:uid="{723F212A-670C-4A3B-B8E6-389E6F040CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Locations" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Locations</t>
   </si>
@@ -44,6 +44,150 @@
   </si>
   <si>
     <t>California</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
   </si>
 </sst>
 </file>
@@ -396,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADF1CD2-1FEB-4105-B7FC-B561B248CD13}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,6 +566,246 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
